--- a/global_data/day_data/603936.xlsx
+++ b/global_data/day_data/603936.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63715,6 +63717,64 @@
         <v>0.01308477651842311</v>
       </c>
     </row>
+    <row r="2184" spans="1:9">
+      <c r="A2184" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B2184">
+        <v>7.23</v>
+      </c>
+      <c r="C2184">
+        <v>7.42</v>
+      </c>
+      <c r="D2184">
+        <v>7.23</v>
+      </c>
+      <c r="E2184">
+        <v>7.39</v>
+      </c>
+      <c r="F2184">
+        <v>9415312</v>
+      </c>
+      <c r="G2184">
+        <v>69353267</v>
+      </c>
+      <c r="H2184">
+        <v>630398004</v>
+      </c>
+      <c r="I2184">
+        <v>0.0149355041422371</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:9">
+      <c r="A2185" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B2185">
+        <v>7.44</v>
+      </c>
+      <c r="C2185">
+        <v>7.58</v>
+      </c>
+      <c r="D2185">
+        <v>7.38</v>
+      </c>
+      <c r="E2185">
+        <v>7.49</v>
+      </c>
+      <c r="F2185">
+        <v>10999300</v>
+      </c>
+      <c r="G2185">
+        <v>82425707</v>
+      </c>
+      <c r="H2185">
+        <v>630398004</v>
+      </c>
+      <c r="I2185">
+        <v>0.01744818341778887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
